--- a/ScrapingTool/Generic/files/FinalData.xlsx
+++ b/ScrapingTool/Generic/files/FinalData.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,15 +384,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thread</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
@@ -402,33 +397,28 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Galaxy A7 (2018) Forum
-		</t>
+            Google Pixel 3a XL        </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09/15/2019</t>
+          <t>06/15/2019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Camera,</t>
+          <t>Security,Camera,Battery,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A7 Camera</t>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://androidforums.com/threads/a7-camera.1307718/</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Coller camera apps</t>
+          <t>Awesome buy for folks you want a great camera and a good battery. Stock android experience is also good and with promised security and android updates for the next 3 years it is a good value for money.
+I do not see any drawbacks with the phone.</t>
         </is>
       </c>
     </row>
@@ -436,36 +426,27 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Galaxy A7 (2018) Forum
-		</t>
+            Google Pixel 3a XL        </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09/15/2019</t>
+          <t>06/15/2019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Camera,App,</t>
+          <t>Youtube,Update,System,Security,Photos,Google Photos,Google Assistant,Google,Feature,Dual Sim,Camera,Battery,Alarm,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A7 Camera</t>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://androidforums.com/threads/a7-camera.1307718/</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sipanghadai923 said:
-					↑
-Coller camera appsClick to expand...
-ummmm what app this app?</t>
+          <t>Fantastic phone. I purchased it for the software and the software is mind blowing with small differences everywhere. For example when swiping the notifications down I can see till what time the battery will last and not just the percentage. Another example is I can keep a Youtube music based alarm tone. So basically I can make any song as alarm tone without downloading it. There is also system wide dark theme. If you use google assistant more, then squeeze to call Google assistant is a feature to love. These may be something already available in some other phone but for a normal user like me and coming from Note 9 these are excellent features. In Android 9 even if E-Sim and normal is present only one can be active at a given point. But phone is complete Dual Sim after Android Q beta update. One E-Sim + one physical SIM and I can see both the signal icons. The option to add operator is still there meaning I can add more E-Sims so E-Sim wise more sims can be added but not sure how many. Beta 4 of Q is very stable and doesnt feel like Beta at all. The so called known issues mentioned in the beta program website also seem to be a no issue for me. I am not a photographer so one camera was more than enough for me. There is no need for a mention about the camera as it is a pixel. It is superb. Battery is another special mention. Easily crosses 22 to 23 hours mark. So once charged in morning you dont have to look for charging again in a normal use. Processor is also good feels like a 8 series Snapdragon though it is a 6 series one. 4G and Wifi speeds are also pretty good and no complaints there.  I ran PUBG without any issues so gaming is ok but since I am not a heavy gamer I dont care about it much. Apart from these you get Google photos space, periodic security updates, software updates and all those stuff as usual for a pixel. Between one plus 7 and this one I am happy that I went for this one now.</t>
         </is>
       </c>
     </row>
@@ -473,33 +454,30 @@
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Galaxy A7 (2018) Forum
-		</t>
+            Google Pixel 3a XL        </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09/10/2019</t>
+          <t>06/14/2019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>Camera,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>phone settings</t>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://androidforums.com/threads/phone-settings.1305682/</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I  can not add 2 nd phone number for the same contact</t>
+          <t>Awesome camera....
+Gaming also good...
+very light weight n handy...
+love it....</t>
         </is>
       </c>
     </row>
@@ -507,36 +485,118 @@
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			Galaxy A7 (2018) Forum
-		</t>
+            Google Pixel 3a XL        </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09/10/2019</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Screenshot,</t>
+          <t>Google,Camera,Battery,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>phone settings</t>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://androidforums.com/threads/phone-settings.1305682/</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>rajendra k satla said:
-					↑
-I  can not add 2 nd phone number for the same contactClick to expand...
-Why not? There should be something like a plus sign. Maybe a screenshot might help.</t>
+          <t>Got it delivered in one day. Excellent product
+Much bigger than I expected, but it was a good thing for me.
+Best in class camera! night sight is phenomenal
+good battery life, Google's minimalist but great ecosystem. Charging is fast. Didn't feel any lag despite using snapdragon 670..
+This phone is for those who have taste for classy product ð</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Google Pixel 3a XL        </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>06/12/2019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Screen,Camera,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Guys I m not going in detailed review as most of them has done it.... I just want to say if you want most of out it of any phn thn it's pixel for otherwise it's not for you.... Amoled+3700mah+brilliant camera+stock3yearupdate android...... That whole to whole screen is all just a facade by marketing team... It doesn't actually serve a purpose nor that 10xzoom</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Google Pixel 3a XL        </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Performance,Display,Camera,Battery,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>I bought the Pixel 3a xl for the camera and it has not disappointed me even once. I only wished that in Portrait mode the lens would zoom out and not zoom in. A selfie stick is recommended for a group of more than 3.
+Battery is good, lasts 1.5 days with data on continuously.
+Display is good, however bezels are a bit large.
+Performance is good. I am not a gamer so I am not sure how well it can handle Asphalt 8, PUBg etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            Google Pixel 3a XL        </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Camera,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://gadgets.ndtv.com/google-pixel-3a-xl-price-in-india-13003</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>love every bit of it... the camera is just too good...</t>
         </is>
       </c>
     </row>
